--- a/doc/ue_fproperty.xlsx
+++ b/doc/ue_fproperty.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA69014-929A-4178-9CE4-AEFC64C358F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9002F6-E40E-4F16-9008-0E762D9847EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="通过反射获取对象" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>FProperty</t>
   </si>
@@ -66,6 +67,60 @@
   <si>
     <t>class COREUOBJECT_API FStructProperty : public FProperty</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStreamingLevelsToConsider* pConsider = nullptr;</t>
+  </si>
+  <si>
+    <t>for (TFieldIterator&lt;UProperty&gt; iter(pMainWorld-&gt;GetClass()); iter; ++iter)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>if (iter-&gt;GetName() == "StreamingLevelsToConsider")</t>
+  </si>
+  <si>
+    <t>FStructProperty* value = CastField&lt;FStructProperty&gt;(*iter);</t>
+  </si>
+  <si>
+    <t>pConsider = value-&gt;ContainerPtrToValuePtr&lt;FStreamingLevelsToConsider&gt;(pMainWorld);</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>TArray&lt;FSpatialHashStreamingGrid*&gt; StreamingGrids;</t>
+  </si>
+  <si>
+    <t>for (TFieldIterator&lt;UProperty&gt; iter(WorldPartition-&gt;RuntimeHash-&gt;GetClass()); iter; ++iter)</t>
+  </si>
+  <si>
+    <t>if (iter-&gt;GetName() == "StreamingGrids")</t>
+  </si>
+  <si>
+    <t>FArrayProperty* ArrayProperty = CastField&lt;FArrayProperty&gt;(*iter);</t>
+  </si>
+  <si>
+    <t>//pStreamingGrids = ArrayProperty-&gt;ContainerPtrToValuePtr&lt;TArray&lt;FSpatialHashStreamingGrid&gt;&gt;(pMainWorld);</t>
+  </si>
+  <si>
+    <t>FScriptArrayHelper_InContainer Helper(ArrayProperty, WorldPartition-&gt;RuntimeHash);</t>
+  </si>
+  <si>
+    <t>for (int32 DynamicIndex = 0; DynamicIndex &lt; Helper.Num(); ++DynamicIndex)</t>
+  </si>
+  <si>
+    <t>const void* ValuePtr = Helper.GetRawPtr(DynamicIndex);</t>
+  </si>
+  <si>
+    <t>FSpatialHashStreamingGrid* Key = (FSpatialHashStreamingGrid*)ValuePtr;</t>
+  </si>
+  <si>
+    <t>StreamingGrids.Add(Key);</t>
   </si>
 </sst>
 </file>
@@ -402,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,4 +536,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082AE553-8150-4233-B68D-79F1FFD0B037}">
+  <dimension ref="D7:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>